--- a/medicine/Psychotrope/Cuve/Cuve.xlsx
+++ b/medicine/Psychotrope/Cuve/Cuve.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une cuve est un récipient destiné à la fabrication et au stockage de produits liquides. Elle peut être de forme cylindrique ou parallélépipédique. Elle comporte des ouvertures destinées au remplissage, à la vidange, au nettoyage et à la mise en place d'opérations de fabrication. 
 Les cuves alimentaires sont conçues pour le vin, l'eau, la bière, l'huile, les jus de fruit, le lait... Les cuves industrielles peuvent contenir des produits pétroliers, (pétrole brut, carburants, huiles de lubrification...) pharmaceutiques, peintures, produits phytosanitaires, eaux usées... 
@@ -515,11 +527,55 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Œnologie
-Les mêmes cuves peuvent être utilisées pour beaucoup de produits alimentaires.
-Les cuves à vin sont utilisées pour la vinification, l'élevage du vin et son stockage. Il existe différents types de cuves utilisés en œnologie, présentant tous des avantages et inconvénients[1].
-Cuve béton
-Ces cuves sont utilisées pour la vinification en rouge, comme pour le stockage. Elles ont une inertie thermique élevée et sont relativement perméables à l’oxygène. Elles ont une capacité limitée (300 hL environ), et nécessitent une fabrication complexe. Les cuves sont fabriquées sur place (nécessitant l'intervention de main d’œuvre compétente) lorsqu'elles font partie intégrante de la cuverie, ou chez les fabricants pour être ensuite livrées chez le client. On en trouve sous forme carrée, cylindrique, conique ou ovoïdale. Les cuves peuvent être ouvertes ou semi-ouvertes pour les vinifications, et fermées pour le stockage.  Elles peuvent être revêtues d'une résine époxy, qui favorise l'entretien mais qui les rend étanches à l’oxygène ; à défaut, le béton brut doit être affranchi à l'acide tartrique[2].
+          <t>Œnologie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mêmes cuves peuvent être utilisées pour beaucoup de produits alimentaires.
+Les cuves à vin sont utilisées pour la vinification, l'élevage du vin et son stockage. Il existe différents types de cuves utilisés en œnologie, présentant tous des avantages et inconvénients.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cuve</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cuve</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Œnologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Cuve béton</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces cuves sont utilisées pour la vinification en rouge, comme pour le stockage. Elles ont une inertie thermique élevée et sont relativement perméables à l’oxygène. Elles ont une capacité limitée (300 hL environ), et nécessitent une fabrication complexe. Les cuves sont fabriquées sur place (nécessitant l'intervention de main d’œuvre compétente) lorsqu'elles font partie intégrante de la cuverie, ou chez les fabricants pour être ensuite livrées chez le client. On en trouve sous forme carrée, cylindrique, conique ou ovoïdale. Les cuves peuvent être ouvertes ou semi-ouvertes pour les vinifications, et fermées pour le stockage.  Elles peuvent être revêtues d'une résine époxy, qui favorise l'entretien mais qui les rend étanches à l’oxygène ; à défaut, le béton brut doit être affranchi à l'acide tartrique.
 Avantages :
 Inertie thermique élevée
 Perméabilité à l’oxygène (en l'absence de revêtement)
@@ -528,8 +584,47 @@
 Entretien régulier pour éviter le risque de développement de défauts organoleptiques
 Fragilité (fissure, décollement du revêtement)
 Peut nécessiter des systèmes de régulation de température internes (risques de fuites)
-Cuve fibre de verre
-Ces cuves sont en plastique renforcé par de la fibre de verre. La plupart sont ouvertes, et fermées par un chapeau flottant. Le chapeau reposant sur le vin, permet de ne pas avoir de vide d'air dans la cuve, et donc d'utiliser uniquement le volume souhaité sans risque d'oxydation du vin.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cuve</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cuve</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Œnologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Cuve fibre de verre</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces cuves sont en plastique renforcé par de la fibre de verre. La plupart sont ouvertes, et fermées par un chapeau flottant. Le chapeau reposant sur le vin, permet de ne pas avoir de vide d'air dans la cuve, et donc d'utiliser uniquement le volume souhaité sans risque d'oxydation du vin.
 Avantages :
 Coût
 Poids léger (installation, déplacement)
@@ -537,16 +632,94 @@
 Inconvénients :
 Entretien régulier pour éviter le risque de développement de défauts organoleptiques
 Fragilité
-Cuve bois
-Les cuves en bois peuvent se présenter sous forme de cuves tronconiques, ou de foudres. Elles sont général 10 à 50 fois plus volumineuses qu'un fût de 2,28 hL, soit des contenances allant de 25 à 200 hL environ pour les foudres, et jusqu'à plusieurs milliers d'hectolitres pour les cuves tronconiques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cuve</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cuve</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Œnologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Cuve bois</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cuves en bois peuvent se présenter sous forme de cuves tronconiques, ou de foudres. Elles sont général 10 à 50 fois plus volumineuses qu'un fût de 2,28 hL, soit des contenances allant de 25 à 200 hL environ pour les foudres, et jusqu'à plusieurs milliers d'hectolitres pour les cuves tronconiques.
 Avantages :
 Inertie thermique élevée
 Échange avec le vin via le bois
 Inconvénients :
 Entretien régulier pour éviter le risque de développement de défauts organoleptiques (détartrage, désinfection)
 Coût élevé
-Cuve acier inoxydable
-Le caractère inoxydable de l’acier est dû à un alliage avec du chrome lors de sa fabrication.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cuve</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cuve</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Œnologie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Cuve acier inoxydable</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le caractère inoxydable de l’acier est dû à un alliage avec du chrome lors de sa fabrication.
 Il existe différents types d'inox utilisés, le « 304L » principalement pour les rouges, et le « 316L » plus résistant à la corrosion acide mais plus cher, notamment pour les blancs (dû à la teneur en SO2 plus élevée, qui par évaporation et combinaison à la vapeur d'eau forme de l’acide sulfurique). La qualité du polissage de l'acier augmente la faible capacité à se salir.
 Avantages :
 Nettoyabilité
@@ -554,51 +727,169 @@
 Inconvénients :
 Inertie thermique faible
 Coût élevé
-Cuve acier revêtu
-L'acier doit être revêtu à l'intérieur avec une peinture ou résine alimentaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cuve</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cuve</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Œnologie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Cuve acier revêtu</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'acier doit être revêtu à l'intérieur avec une peinture ou résine alimentaire.
 Avantages :
 Coût
 Solidité
 Inconvénients :
 Inertie thermique faible
 Revêtement nécessaire pour éviter le risque de casse ferrique
-Autres matériaux
-D'autres matériaux moins communs peuvent être utilisés, comme l’ardoise[3], le granit[4]. Il existe des cuves en céramique ou en argile, notamment les jarres et amphores de vinification enterrées.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Cuve</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Psychotrope/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Cuve</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Œnologie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Autres matériaux</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'autres matériaux moins communs peuvent être utilisés, comme l’ardoise, le granit. Il existe des cuves en céramique ou en argile, notamment les jarres et amphores de vinification enterrées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cuve</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cuve</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Fabrication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mise en œuvre
-Les cuves en matières plastiques, surtout en polyéthylène haute densité (PEHD), sont fabriquées principalement par rotomoulage ou par extrusion-soufflage ;
-Les cuves en matériaux composites, surtout en polyester insaturé renforcé de fibres de verre, sont fabriqués principalement par enroulement filamentaire ou par moulage au contact[5].
-Ouvertures
-Il existe plusieurs types d'ouverture, les portes, assez grandes pour permettre d'y faire pénétrer une personne, des outils, etc. La porte peut être située à plusieurs endroits ; une porte sur le dessus lorsque la cuve est close, une porte latérale pour la majorité des cuves. Latérale, située en bas de la cuve, au ras de la paroi inférieure, elle permet de faciliter le décuvage du marc lors des vinifications en rouge. Latérale, située légèrement en hauteur, elle permet de faciliter la fin d'un soutirage, notamment pour les vinifications en blanc ou l'élevage.
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Mise en œuvre</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cuves en matières plastiques, surtout en polyéthylène haute densité (PEHD), sont fabriquées principalement par rotomoulage ou par extrusion-soufflage ;
+Les cuves en matériaux composites, surtout en polyester insaturé renforcé de fibres de verre, sont fabriqués principalement par enroulement filamentaire ou par moulage au contact.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cuve</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cuve</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Fabrication</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Ouvertures</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe plusieurs types d'ouverture, les portes, assez grandes pour permettre d'y faire pénétrer une personne, des outils, etc. La porte peut être située à plusieurs endroits ; une porte sur le dessus lorsque la cuve est close, une porte latérale pour la majorité des cuves. Latérale, située en bas de la cuve, au ras de la paroi inférieure, elle permet de faciliter le décuvage du marc lors des vinifications en rouge. Latérale, située légèrement en hauteur, elle permet de faciliter la fin d'un soutirage, notamment pour les vinifications en blanc ou l'élevage.
 Les cuves possèdent des ouvertures de plus petite taille, souvent des vannes munies d'un pas de vis et destinées à y brancher des tuyaux de remplissage ou de vidange. Le diamètre de ces dernières est le plus souvent de 40 mm, 50 mm ou 70 mm.
 Les cuves sont parfois également équipées de robinets permettant de prélever un échantillon pour l’analyse ou la dégustation.
 </t>
